--- a/data/trans_camb/P19_2_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P19_2_R-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,9 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +545,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +583,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M1</t>
         </is>
       </c>
     </row>
@@ -618,6 +639,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,46</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,18</t>
+          <t>1,04</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-2,81</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>1,82</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-2,02</t>
+          <t>4,11</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,27</t>
+          <t>-3,3</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-1,84</t>
+          <t>2,71</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>1,51</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
         </is>
       </c>
     </row>
@@ -685,47 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,42; -0,05</t>
+          <t>-7,59; 11,23</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,82; 1,96</t>
+          <t>-5,58; 11,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 8,01</t>
+          <t>-13,8; 6,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,11; 7,2</t>
+          <t>0,0; 15,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-8,14; 5,19</t>
+          <t>-5,61; 14,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 2,68</t>
+          <t>-9,83; 12,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 2,34</t>
+          <t>-4,94; 15,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 1,97</t>
+          <t>-20,02; 8,81</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 2,95</t>
+          <t>-3,34; 10,27</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-5,14; 8,66</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-6,53; 8,65</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-9,33; 7,95</t>
         </is>
       </c>
     </row>
@@ -738,47 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-73,03%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-52,1%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>-2,94%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,02%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-45,22%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-27,95%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-31,36%</t>
+          <t>-3,7%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-25,38%</t>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,64%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
         </is>
       </c>
     </row>
@@ -791,47 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 74,52</t>
+          <t>-7,67; 12,74</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,6; 12,93</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-75,23; 306,17</t>
+          <t>-14,57; 7,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-58,88; 153,84</t>
+          <t>0,0; 18,89</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-69,49; 121,23</t>
+          <t>-6,13; 17,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-81,85; 84,44</t>
+          <t>-10,2; 15,19</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-70,29; 55,2</t>
+          <t>-5,15; 18,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-69,93; 49,7</t>
+          <t>-21,86; 10,38</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-66,59; 61,97</t>
+          <t>-3,56; 11,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-5,31; 10,01</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-6,78; 10,04</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-9,79; 9,09</t>
         </is>
       </c>
     </row>
@@ -848,47 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-3,2</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-2,79</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>-1,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-3,08</t>
+          <t>-3,77</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-5,74</t>
+          <t>1,22</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,16</t>
+          <t>3,28</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-4,39</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,76</t>
+          <t>0,61</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>1,34</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-6,83; 0,26</t>
+          <t>-4,3; 4,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 0,39</t>
+          <t>-6,41; 3,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 2,25</t>
+          <t>-7,32; 3,25</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,16; 2,99</t>
+          <t>-10,26; 1,92</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-11,61; -1,03</t>
+          <t>-5,31; 7,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 1,55</t>
+          <t>-3,26; 9,08</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-6,77; 0,46</t>
+          <t>-4,75; 8,2</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,61; -1,04</t>
+          <t>-1,27; 10,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-6,3; 0,63</t>
+          <t>-3,7; 4,7</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-2,52; 5,79</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-4,25; 4,38</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-3,74; 4,78</t>
         </is>
       </c>
     </row>
@@ -954,47 +1068,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-51,61%</t>
+          <t>0,02%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-45,0%</t>
+          <t>-0,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-31,24%</t>
+          <t>-1,55%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-26,01%</t>
+          <t>-3,95%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-48,49%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-26,72%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-34,63%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-48,05%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-30,17%</t>
+          <t>0,66%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>1,45%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0,37%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,55%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1136,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-79,77; 12,62</t>
+          <t>-4,45; 5,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-78,16; 15,94</t>
+          <t>-6,6; 3,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-70,19; 59,66</t>
+          <t>-7,55; 3,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-60,32; 36,9</t>
+          <t>-10,53; 2,01</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-71,34; -6,69</t>
+          <t>-5,73; 8,98</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-60,59; 17,88</t>
+          <t>-3,55; 10,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,74; 8,55</t>
+          <t>-5,18; 9,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-67,38; -11,29</t>
+          <t>-1,37; 12,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-55,88; 9,55</t>
+          <t>-3,96; 5,17</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-2,65; 6,46</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 4,88</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-3,99; 5,36</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1208,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-1,33</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-0,06</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-0,13</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-6,25</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,06</t>
+          <t>5,9</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>3,61</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-3,96</t>
+          <t>3,11</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,74</t>
+          <t>1,89</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-1,81</t>
+          <t>4,86</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,49</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1276,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 2,64</t>
+          <t>-1,58; 9,41</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-4,51; 4,46</t>
+          <t>-4,68; 8,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 4,16</t>
+          <t>-5,27; 7,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-11,45; -1,38</t>
+          <t>-8,24; 5,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,57; 0,12</t>
+          <t>-0,05; 11,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-9,11; 1,93</t>
+          <t>-2,46; 9,94</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -0,67</t>
+          <t>-3,52; 9,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,42; 0,66</t>
+          <t>-4,65; 8,17</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-5,33; 1,67</t>
+          <t>1,25; 8,85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-1,69; 7,03</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-1,56; 6,85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-4,29; 5,2</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1344,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-29,07%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-1,21%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-2,8%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-52,7%</t>
+          <t>-1,42%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-42,66%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-26,75%</t>
+          <t>4,06%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-46,68%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-32,33%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-21,3%</t>
+          <t>5,34%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>2,85%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,54%</t>
         </is>
       </c>
     </row>
@@ -1223,54 +1412,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-77,63; 131,17</t>
+          <t>-1,67; 10,49</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-67,4; 182,86</t>
+          <t>-4,88; 9,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-69,95; 181,46</t>
+          <t>-5,36; 8,3</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-76,42; -14,85</t>
+          <t>-8,63; 6,13</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-69,19; 5,04</t>
+          <t>-0,05; 13,71</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-59,76; 27,78</t>
+          <t>-2,62; 11,75</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-68,99; -8,38</t>
+          <t>-3,79; 10,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-59,2; 12,28</t>
+          <t>-5,07; 9,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-51,84; 26,98</t>
+          <t>1,31; 9,99</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-1,82; 7,89</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 7,8</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-4,61; 5,93</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1484,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-0,94</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-3,6</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-4,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,47</t>
+          <t>—</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-2,28</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1552,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-5,5; -0,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 0,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,21; -0,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,24; -1,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-6,7; -0,25</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,39; -0,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-5,76; -1,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; -0,22</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1620,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-49,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-34,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-16,67%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-32,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-42,65%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-29,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-37,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-40,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-26,6%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,59 +1688,358 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-73,48; -10,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-64,1; 15,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-51,61; 45,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-55,34; -1,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-62,61; -16,39</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,95; -0,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-56,05; -13,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-57,26; -17,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,58; -2,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>1,44</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,24</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,61</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>-1,48</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>3,62</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>3,21</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2,16</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>2,59</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,86</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>1,21</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-1,94; 4,81</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-2,9; 4,05</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,68; 2,67</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>-5,83; 2,31</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>-0,27; 7,84</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 7,01</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,47; 6,65</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 6,17</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>0,14; 5,22</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-0,75; 4,84</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 4,22</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-2,46; 3,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1,51%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-0,64%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>-1,56%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>3,02%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2,43%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>2,82%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>2,03%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-2,04; 5,16</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-3,04; 4,4</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-4,86; 2,88</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>-6,12; 2,5</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>-0,28; 9,06</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-0,96; 8,08</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-1,63; 7,63</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-2,5; 7,21</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>0,16; 5,82</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 5,37</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-1,6; 4,68</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-2,66; 3,69</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
